--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C9A90-AE31-4928-A479-2A33F56FD8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C503E-47D8-49FB-91B2-A1C25D1E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-21228" yWindow="1812" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -45,40 +45,43 @@
     <t># Hardware definition</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Excel data file</t>
+  </si>
+  <si>
+    <t>Commodore 64 (Breadbin)</t>
+  </si>
+  <si>
+    <t>Commodore 64C</t>
+  </si>
+  <si>
+    <t>1571 Diskdrive</t>
+  </si>
+  <si>
+    <t>1541 Diskdrive</t>
+  </si>
+  <si>
+    <t>Commodore 128 and 128D</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Commodore 128DCR</t>
+  </si>
+  <si>
+    <t>(anyone want to do this?)</t>
+  </si>
+  <si>
+    <t>Data\Commodore 64 Breadbin\Data_C64_Breadbin.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Commodore 64C\Data_C64C.xlsx</t>
+  </si>
+  <si>
     <t>Data\Commodore 128\Data_C128.xlsx</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Excel data file</t>
-  </si>
-  <si>
-    <t>Commodore 64 (Breadbin)</t>
-  </si>
-  <si>
-    <t>Commodore 64C</t>
-  </si>
-  <si>
-    <t>1571 Diskdrive</t>
-  </si>
-  <si>
-    <t>1541 Diskdrive</t>
-  </si>
-  <si>
-    <t>Commodore 128 and 128D</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>(soon to come)</t>
-  </si>
-  <si>
-    <t>Commodore 128DCR</t>
-  </si>
-  <si>
-    <t>(anyone want to do this?)</t>
   </si>
 </sst>
 </file>
@@ -513,42 +516,42 @@
     <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C503E-47D8-49FB-91B2-A1C25D1E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E671F-8889-4D7C-8A0D-D064BB4716DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21228" yWindow="1812" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hardware" sheetId="1" r:id="rId1"/>
+    <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Hardware name in drop-down</t>
   </si>
   <si>
-    <t># Hardware definition</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -66,29 +63,57 @@
     <t>Commodore 128 and 128D</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
     <t>Commodore 128DCR</t>
   </si>
   <si>
-    <t>(anyone want to do this?)</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64 Breadbin\Data_C64_Breadbin.xlsx</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64C\Data_C64C.xlsx</t>
-  </si>
-  <si>
-    <t>Data\Commodore 128\Data_C128.xlsx</t>
+    <t>Board name in drop-down</t>
+  </si>
+  <si>
+    <t>Hardware and boards</t>
+  </si>
+  <si>
+    <t># Hardware and board definitions</t>
+  </si>
+  <si>
+    <t>Data\Commodore 128\310378\Data C128 310378.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Commodore 64 Breadbin\250407\Data C64 Breadbin 250407.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Commodore 64 Breadbin\250425\Data C64 Breadbin 250425.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Commodore 64C\250466\Data C64C 250466.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Revision date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2025-April-14</t>
+    </r>
+  </si>
+  <si>
+    <t>Documentation of columns in this worksheet is availble here:</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#main-excel-data-file-format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +131,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,10 +196,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -169,8 +226,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,123 +553,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="C10" s="1">
+        <v>250407</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>250425</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C12" s="1">
+        <v>250466</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>310378</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="59" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" location="main-excel-data-file-format" xr:uid="{A6162A32-F648-46C6-BB4F-116C1058B046}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E671F-8889-4D7C-8A0D-D064BB4716DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606D38A-5E21-42EE-B161-640F64761A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#main-excel-data-file-format</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20</t>
+  </si>
+  <si>
+    <t>Data\Commodore VIC-20\250403\Data VIC20 250403.xlsx</t>
+  </si>
+  <si>
+    <t>250403 (CR)</t>
   </si>
 </sst>
 </file>
@@ -554,11 +563,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>250407</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>250425</v>
+        <v>250407</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>250466</v>
+        <v>250425</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -666,21 +675,27 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>310378</v>
+        <v>250466</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>310378</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,39 +711,44 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-    </row>
-    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+    </row>
     <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-    </row>
+    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
     </row>
@@ -830,6 +850,9 @@
     </row>
     <row r="69" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606D38A-5E21-42EE-B161-640F64761A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D7E68-CB59-45C9-B463-2271FD3F6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
@@ -75,16 +75,31 @@
     <t># Hardware and board definitions</t>
   </si>
   <si>
-    <t>Data\Commodore 128\310378\Data C128 310378.xlsx</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64 Breadbin\250407\Data C64 Breadbin 250407.xlsx</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64 Breadbin\250425\Data C64 Breadbin 250425.xlsx</t>
-  </si>
-  <si>
-    <t>Data\Commodore 64C\250466\Data C64C 250466.xlsx</t>
+    <t>Documentation of columns in this worksheet is availble here:</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#main-excel-data-file-format</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20</t>
+  </si>
+  <si>
+    <t>250403 (CR)</t>
+  </si>
+  <si>
+    <t>Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64C/250466/Data C64C 250466.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 128/310378/Data C128 310378.xlsx</t>
   </si>
   <si>
     <r>
@@ -99,23 +114,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-14</t>
+      <t>2025-April-25</t>
     </r>
-  </si>
-  <si>
-    <t>Documentation of columns in this worksheet is availble here:</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#main-excel-data-file-format</t>
-  </si>
-  <si>
-    <t>Commodore VIC-20</t>
-  </si>
-  <si>
-    <t>Data\Commodore VIC-20\250403\Data VIC20 250403.xlsx</t>
-  </si>
-  <si>
-    <t>250403 (CR)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,17 +593,17 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>250407</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>250425</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>250466</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>310378</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D7E68-CB59-45C9-B463-2271FD3F6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6392AD5-3CCE-45EB-A5D4-FE6452EB6308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Excel data file</t>
   </si>
   <si>
-    <t>Commodore 64 (Breadbin)</t>
-  </si>
-  <si>
-    <t>Commodore 64C</t>
-  </si>
-  <si>
     <t>1571 Diskdrive</t>
   </si>
   <si>
@@ -90,16 +84,19 @@
     <t>Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx</t>
   </si>
   <si>
-    <t>Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64 Breadbin/250425/Data C64 Breadbin 250425.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64C/250466/Data C64C 250466.xlsx</t>
-  </si>
-  <si>
     <t>Data/Commodore 128/310378/Data C128 310378.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250466/Data C64 250466.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250425/Data C64 250425.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250407/Data C64 250407.xlsx</t>
   </si>
   <si>
     <r>
@@ -114,7 +111,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-25</t>
+      <t>2025-May-11</t>
     </r>
   </si>
 </sst>
@@ -588,27 +585,27 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -622,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>3</v>
@@ -633,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>250407</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -661,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>250425</v>
@@ -675,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>250466</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>310378</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -703,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6392AD5-3CCE-45EB-A5D4-FE6452EB6308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A3C76-150C-4CB9-B2BB-7E0159891D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A3C76-150C-4CB9-B2BB-7E0159891D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6EAEB-166F-42AB-8750-865E60155469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -111,8 +111,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-11</t>
+      <t>2025-May-25</t>
     </r>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250469/Data C64 250469.xlsx</t>
   </si>
 </sst>
 </file>
@@ -560,11 +563,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,21 +689,27 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>310378</v>
+        <v>250469</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>310378</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,39 +725,44 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+    </row>
     <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+    </row>
     <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+    </row>
     <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+    </row>
     <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-    </row>
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
     </row>
@@ -850,6 +864,9 @@
     </row>
     <row r="70" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6EAEB-166F-42AB-8750-865E60155469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014FB6B3-0B11-4CEF-A472-8F1D558C4AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,32 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t># Commodore Repair Toolbox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Excel data file</t>
   </si>
   <si>
-    <t>1571 Diskdrive</t>
-  </si>
-  <si>
-    <t>1541 Diskdrive</t>
-  </si>
-  <si>
     <t>Commodore 128 and 128D</t>
   </si>
   <si>
-    <t>Commodore 128DCR</t>
-  </si>
-  <si>
     <t>Board name in drop-down</t>
   </si>
   <si>
@@ -97,6 +82,9 @@
   </si>
   <si>
     <t>Data/Commodore 64/250407/Data C64 250407.xlsx</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250469/Data C64 250469.xlsx</t>
   </si>
   <si>
     <r>
@@ -111,11 +99,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-25</t>
+      <t>2025-June-10</t>
     </r>
   </si>
   <si>
-    <t>Data/Commodore 64/250469/Data C64 250469.xlsx</t>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commodore Repair Toolbox</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -209,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -229,12 +230,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -246,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,310 +561,263 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>250407</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>250425</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>250466</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>250469</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>250407</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>250425</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>250466</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>250469</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1">
         <v>310378</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+    </row>
     <row r="37" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-    </row>
-    <row r="71" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A68" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014FB6B3-0B11-4CEF-A472-8F1D558C4AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B981C-A162-46F2-AEBB-B140393CC0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
@@ -66,41 +66,7 @@
     <t>250403 (CR)</t>
   </si>
   <si>
-    <t>Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 128/310378/Data C128 310378.xlsx</t>
-  </si>
-  <si>
     <t>Commodore 64</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250466/Data C64 250466.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250425/Data C64 250425.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250407/Data C64 250407.xlsx</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250469/Data C64 250469.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Revision date: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2025-June-10</t>
-    </r>
   </si>
   <si>
     <r>
@@ -116,6 +82,40 @@
         <scheme val="minor"/>
       </rPr>
       <t>Commodore Repair Toolbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/Data VIC20 250403.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Data C64 250407.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Data C64 250425.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Data C64 250466.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Data C64 250469.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Data C128 310378.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Revision date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2025-September-13</t>
     </r>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,23 +629,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>250407</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>250425</v>
@@ -656,18 +656,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>250466</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>250469</v>
@@ -684,7 +684,7 @@
         <v>310378</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B981C-A162-46F2-AEBB-B140393CC0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A7226-ECEC-4750-82C7-87CF68D2B1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Commodore 128/310378/Data C128 310378.xlsx</t>
   </si>
   <si>
+    <t>Hardware notes in "Overview" tab</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -115,8 +118,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-13</t>
+      <t>2025-November-1</t>
     </r>
+  </si>
+  <si>
+    <t>Introduced the SuperPLA and 8580 SID.</t>
+  </si>
+  <si>
+    <t>Has 6581 SID.</t>
+  </si>
+  <si>
+    <t>The 250466 board is identical to the 250425 board, except for having two RAM chips instead of eight on the 250425.
+Has 6581 SID.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +574,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -572,45 +585,46 @@
   <cols>
     <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
@@ -620,8 +634,11 @@
       <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -642,8 +659,11 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,8 +673,11 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -664,8 +687,11 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,8 +701,11 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,6 +714,9 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A7226-ECEC-4750-82C7-87CF68D2B1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334EBCC6-3AC3-40D2-AC9F-6BA93DF05C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
+    <sheet name="Version match" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
@@ -106,6 +107,16 @@
     <t>Hardware notes in "Overview" tab</t>
   </si>
   <si>
+    <t>Has 6581 SID.</t>
+  </si>
+  <si>
+    <t>The 250466 board is identical to the 250425 board, except for having two RAM chips instead of eight on the 250425.
+Has 6581 SID.</t>
+  </si>
+  <si>
+    <t>Introduced SuperPLA and 8580 SID.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -118,18 +129,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-November-1</t>
+      <t>2025-December-13</t>
     </r>
   </si>
   <si>
-    <t>Introduced the SuperPLA and 8580 SID.</t>
-  </si>
-  <si>
-    <t>Has 6581 SID.</t>
-  </si>
-  <si>
-    <t>The 250466 board is identical to the 250425 board, except for having two RAM chips instead of eight on the 250425.
-Has 6581 SID.</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>CRT version(s) where this Excel will work</t>
+  </si>
+  <si>
+    <t>2025-December-8</t>
   </si>
 </sst>
 </file>
@@ -603,7 +613,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -688,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -716,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -858,4 +868,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56206CAE-0631-4609-AB22-50D6669B86E2}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="main-excel-data-file-format" xr:uid="{9927CEA5-CE63-49AA-96B9-BF7942EAA073}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334EBCC6-3AC3-40D2-AC9F-6BA93DF05C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C33FDC-97B3-4DDB-9BBD-1B7F7CFDF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>CRT version(s) where this Excel will work</t>
   </si>
   <si>
-    <t>2025-December-8</t>
+    <t>2025-December-20</t>
   </si>
 </sst>
 </file>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C33FDC-97B3-4DDB-9BBD-1B7F7CFDF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E27551-E0CB-4A20-9F9F-605333AED58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -117,6 +117,15 @@
     <t>Introduced SuperPLA and 8580 SID.</t>
   </si>
   <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>CRT version(s) where this Excel will work</t>
+  </si>
+  <si>
+    <t>2025-December-20</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -129,17 +138,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-13</t>
+      <t>2025-December-20</t>
     </r>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>CRT version(s) where this Excel will work</t>
-  </si>
-  <si>
-    <t>2025-December-20</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,17 +909,17 @@
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E27551-E0CB-4A20-9F9F-605333AED58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8447D-A588-4D12-9A26-22938B19FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
   <si>
     <t>Excel data file</t>
-  </si>
-  <si>
-    <t>Commodore 128 and 128D</t>
   </si>
   <si>
     <t>Board name in drop-down</t>
@@ -107,16 +104,10 @@
     <t>Hardware notes in "Overview" tab</t>
   </si>
   <si>
-    <t>Has 6581 SID.</t>
-  </si>
-  <si>
     <t>The 250466 board is identical to the 250425 board, except for having two RAM chips instead of eight on the 250425.
 Has 6581 SID.</t>
   </si>
   <si>
-    <t>Introduced SuperPLA and 8580 SID.</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -124,6 +115,15 @@
   </si>
   <si>
     <t>2025-December-20</t>
+  </si>
+  <si>
+    <t>Has 8580 SID</t>
+  </si>
+  <si>
+    <t>Has 6581 SID</t>
+  </si>
+  <si>
+    <t>Introduced SuperPLA and 8580 SID</t>
   </si>
   <si>
     <r>
@@ -138,8 +138,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2026-January-10</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 128/250477/Data C128DCR 250477.xlsx</t>
+  </si>
+  <si>
+    <t>310378 (C128 &amp; C128D)</t>
+  </si>
+  <si>
+    <t>250477 (C128DCR)</t>
+  </si>
+  <si>
+    <t>Commodore 128</t>
+  </si>
+  <si>
+    <t>250469 (short board)</t>
+  </si>
+  <si>
+    <t>250407 (long board)</t>
+  </si>
+  <si>
+    <t>250425 (long board)</t>
+  </si>
+  <si>
+    <t>250466 (long board)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,12 +627,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -618,17 +642,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -639,94 +663,108 @@
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>250407</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>250425</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>250466</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>250469</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>310378</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -883,12 +921,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -896,12 +934,12 @@
     </row>
     <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -909,17 +947,17 @@
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8447D-A588-4D12-9A26-22938B19FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B2AC6-3731-4E69-B868-480ADD29BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware &amp; Board" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
@@ -117,13 +117,43 @@
     <t>2025-December-20</t>
   </si>
   <si>
-    <t>Has 8580 SID</t>
-  </si>
-  <si>
     <t>Has 6581 SID</t>
   </si>
   <si>
     <t>Introduced SuperPLA and 8580 SID</t>
+  </si>
+  <si>
+    <t>Commodore 128/250477/Data C128DCR 250477.xlsx</t>
+  </si>
+  <si>
+    <t>310378 (C128 &amp; C128D)</t>
+  </si>
+  <si>
+    <t>250477 (C128DCR)</t>
+  </si>
+  <si>
+    <t>Commodore 128</t>
+  </si>
+  <si>
+    <t>250469 (short board)</t>
+  </si>
+  <si>
+    <t>250407 (long board)</t>
+  </si>
+  <si>
+    <t>250425 (long board)</t>
+  </si>
+  <si>
+    <t>250466 (long board)</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
+    <t>Has 6581 SID. C128D is with the plastic case</t>
+  </si>
+  <si>
+    <t>Has 8580 SID. This is with the metal case</t>
   </si>
   <si>
     <r>
@@ -138,32 +168,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-January-10</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 128/250477/Data C128DCR 250477.xlsx</t>
-  </si>
-  <si>
-    <t>310378 (C128 &amp; C128D)</t>
-  </si>
-  <si>
-    <t>250477 (C128DCR)</t>
-  </si>
-  <si>
-    <t>Commodore 128</t>
-  </si>
-  <si>
-    <t>250469 (short board)</t>
-  </si>
-  <si>
-    <t>250407 (long board)</t>
-  </si>
-  <si>
-    <t>250425 (long board)</t>
-  </si>
-  <si>
-    <t>250466 (long board)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +643,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -716,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -730,41 +736,41 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -910,7 +916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56206CAE-0631-4609-AB22-50D6669B86E2}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,6 +966,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" location="main-excel-data-file-format" xr:uid="{9927CEA5-CE63-49AA-96B9-BF7942EAA073}"/>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B2AC6-3731-4E69-B868-480ADD29BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A450BC-2F4E-4FAD-8E1F-0C06EEC18073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Hardware name in drop-down</t>
   </si>
@@ -168,8 +168,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
+  </si>
+  <si>
+    <t>2026-February-21</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56206CAE-0631-4609-AB22-50D6669B86E2}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,6 +974,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" location="main-excel-data-file-format" xr:uid="{9927CEA5-CE63-49AA-96B9-BF7942EAA073}"/>

--- a/Data/Commodore-Repair-Toolbox.xlsx
+++ b/Data/Commodore-Repair-Toolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A450BC-2F4E-4FAD-8E1F-0C06EEC18073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E6FE9-CCA3-494A-B15E-32598B6BD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -156,6 +156,9 @@
     <t>Has 8580 SID. This is with the metal case</t>
   </si>
   <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -170,9 +173,6 @@
       </rPr>
       <t>2026-February-21</t>
     </r>
-  </si>
-  <si>
-    <t>2026-February-21</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
